--- a/code_matlab/results/hsa_summary_tables.xlsx
+++ b/code_matlab/results/hsa_summary_tables.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="4036" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="4262" uniqueCount="478">
   <si>
     <t>ModelType</t>
   </si>
@@ -1536,456 +1536,458 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>451</v>
+        <v>335</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>457</v>
+        <v>424</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>52</v>
       </c>
       <c r="F2" s="0">
-        <v>0.18490000000000001</v>
+        <v>0.059398971721020814</v>
       </c>
       <c r="G2" s="0">
-        <v>0.14099999999999999</v>
+        <v>0.095549601515411461</v>
       </c>
       <c r="H2" s="0"/>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>187</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>469</v>
+        <v>335</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>472</v>
+        <v>424</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>475</v>
+        <v>52</v>
       </c>
       <c r="F3" s="0">
-        <v>0.19320000000000001</v>
+        <v>0.059398971721020814</v>
       </c>
       <c r="G3" s="0">
-        <v>0.14560000000000001</v>
-      </c>
-      <c r="H3" s="0">
-        <v>0.27500000000000002</v>
-      </c>
+        <v>0.095549601515411461</v>
+      </c>
+      <c r="H3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>335</v>
+        <v>120</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>52</v>
+        <v>439</v>
       </c>
       <c r="F4" s="0">
-        <v>0.059398971721020814</v>
+        <v>0.061800621920229129</v>
       </c>
       <c r="G4" s="0">
-        <v>0.095549601515411461</v>
-      </c>
-      <c r="H4" s="0"/>
+        <v>0.099454080467972591</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0.11812400843915953</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>187</v>
+        <v>5</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>335</v>
+        <v>188</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>52</v>
+        <v>440</v>
       </c>
       <c r="F5" s="0">
-        <v>0.059398971721020814</v>
+        <v>0.061747106545775407</v>
       </c>
       <c r="G5" s="0">
-        <v>0.095549601515411461</v>
-      </c>
-      <c r="H5" s="0"/>
+        <v>0.1237750857383085</v>
+      </c>
+      <c r="H5" s="0">
+        <v>0.11999416949030507</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="F6" s="0">
-        <v>0.061800621920229129</v>
+        <v>0.066453986325297851</v>
       </c>
       <c r="G6" s="0">
-        <v>0.099454080467972591</v>
+        <v>0.09989895709474482</v>
       </c>
       <c r="H6" s="0">
-        <v>0.11812400843915953</v>
+        <v>0.05747487681711487</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>188</v>
+        <v>17</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="F7" s="0">
-        <v>0.061747106545775407</v>
+        <v>0.064052547237336804</v>
       </c>
       <c r="G7" s="0">
-        <v>0.1237750857383085</v>
+        <v>0.12294745455177691</v>
       </c>
       <c r="H7" s="0">
-        <v>0.11999416949030507</v>
+        <v>0.045586036552811904</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>17</v>
+        <v>422</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>441</v>
+        <v>52</v>
       </c>
       <c r="F8" s="0">
-        <v>0.066453986325297851</v>
+        <v>0.059376965642620835</v>
       </c>
       <c r="G8" s="0">
-        <v>0.09989895709474482</v>
-      </c>
-      <c r="H8" s="0">
-        <v>0.05747487681711487</v>
-      </c>
+        <v>0.04098655557537817</v>
+      </c>
+      <c r="H8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>17</v>
+        <v>422</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>442</v>
+        <v>52</v>
       </c>
       <c r="F9" s="0">
-        <v>0.064052547237336804</v>
+        <v>0.059376965642620835</v>
       </c>
       <c r="G9" s="0">
-        <v>0.12294745455177691</v>
-      </c>
-      <c r="H9" s="0">
-        <v>0.045586036552811904</v>
-      </c>
+        <v>0.04098655557537817</v>
+      </c>
+      <c r="H9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>453</v>
+        <v>24</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>459</v>
+        <v>430</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>52</v>
+        <v>443</v>
       </c>
       <c r="F10" s="0">
-        <v>0.18210000000000001</v>
+        <v>0.062345399889612733</v>
       </c>
       <c r="G10" s="0">
-        <v>0.092700000000000005</v>
-      </c>
-      <c r="H10" s="0"/>
+        <v>0.042348734725646979</v>
+      </c>
+      <c r="H10" s="0">
+        <v>0.11371063888645826</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>470</v>
+        <v>124</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>473</v>
+        <v>431</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>476</v>
+        <v>444</v>
       </c>
       <c r="F11" s="0">
-        <v>0.1895</v>
+        <v>0.062105014700829582</v>
       </c>
       <c r="G11" s="0">
-        <v>0.095699999999999993</v>
+        <v>0.099061192593951075</v>
       </c>
       <c r="H11" s="0">
-        <v>0.2722</v>
+        <v>0.11802819957293247</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>52</v>
+        <v>445</v>
       </c>
       <c r="F12" s="0">
-        <v>0.059376965642620835</v>
+        <v>0.064490168296866601</v>
       </c>
       <c r="G12" s="0">
-        <v>0.04098655557537817</v>
-      </c>
-      <c r="H12" s="0"/>
+        <v>0.047342532913670174</v>
+      </c>
+      <c r="H12" s="0">
+        <v>0.0635929754829688</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>187</v>
+        <v>7</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>422</v>
+        <v>123</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>52</v>
+        <v>446</v>
       </c>
       <c r="F13" s="0">
-        <v>0.059376965642620835</v>
+        <v>0.064207766706244923</v>
       </c>
       <c r="G13" s="0">
-        <v>0.04098655557537817</v>
-      </c>
-      <c r="H13" s="0"/>
+        <v>0.100883911221735</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0.042758661837611865</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>443</v>
+        <v>52</v>
       </c>
       <c r="F14" s="0">
-        <v>0.062345399889612733</v>
+        <v>0.057064324585803773</v>
       </c>
       <c r="G14" s="0">
-        <v>0.042348734725646979</v>
-      </c>
-      <c r="H14" s="0">
-        <v>0.11371063888645826</v>
-      </c>
+        <v>0.030855961766864459</v>
+      </c>
+      <c r="H14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>5</v>
+        <v>187</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>444</v>
+        <v>52</v>
       </c>
       <c r="F15" s="0">
-        <v>0.062105014700829582</v>
+        <v>0.057064324585803773</v>
       </c>
       <c r="G15" s="0">
-        <v>0.099061192593951075</v>
-      </c>
-      <c r="H15" s="0">
-        <v>0.11802819957293247</v>
-      </c>
+        <v>0.030855961766864459</v>
+      </c>
+      <c r="H15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>423</v>
+        <v>127</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F16" s="0">
-        <v>0.064490168296866601</v>
+        <v>0.059088456346915633</v>
       </c>
       <c r="G16" s="0">
-        <v>0.047342532913670174</v>
+        <v>0.031298205400383847</v>
       </c>
       <c r="H16" s="0">
-        <v>0.0635929754829688</v>
+        <v>0.11223244034937019</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F17" s="0">
-        <v>0.064207766706244923</v>
+        <v>0.060208755849511679</v>
       </c>
       <c r="G17" s="0">
-        <v>0.100883911221735</v>
+        <v>0.10908533572873516</v>
       </c>
       <c r="H17" s="0">
-        <v>0.042758661837611865</v>
+        <v>0.11727194988291326</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>455</v>
+        <v>82</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>52</v>
+        <v>449</v>
       </c>
       <c r="F18" s="0">
-        <v>0.19439999999999999</v>
+        <v>0.064414258080194714</v>
       </c>
       <c r="G18" s="0">
-        <v>0.072499999999999995</v>
-      </c>
-      <c r="H18" s="0"/>
+        <v>0.036927840950874001</v>
+      </c>
+      <c r="H18" s="0">
+        <v>0.060520266606966876</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>471</v>
+        <v>27</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>474</v>
+        <v>438</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>477</v>
+        <v>450</v>
       </c>
       <c r="F19" s="0">
-        <v>0.20300000000000001</v>
+        <v>0.062270543879816835</v>
       </c>
       <c r="G19" s="0">
-        <v>0.075600000000000001</v>
+        <v>0.11449987222922488</v>
       </c>
       <c r="H19" s="0">
-        <v>0.29289999999999999</v>
+        <v>0.03990131817733323</v>
       </c>
     </row>
     <row r="20">
